--- a/dataset/InitialAddress.xlsx
+++ b/dataset/InitialAddress.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD57DB-1B62-F644-9581-AAD5BD5C253F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F867D-BD50-7A48-8303-4FEEB95531A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="266">
   <si>
     <t>0x7f9241ac942ba97085ef1a1542d270bfd6a987fd</t>
   </si>
@@ -615,10 +615,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0x3c33cc712fbee8cf97982c9428deca11b9d8fac5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Free buy order</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -711,58 +707,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0xbcf3a5493057c5f6b04334a2436e4d4f53c2fc94</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x906df194c9d8e05334ee1b09c2a61e1009bf14c6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xe8494a98833144a414d7a2433dcf9b8c0a8f8659</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x4738a8b45fcf8ffe82053696b0704733a35ac401</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xbf393a361fd8c6986822e41e965b5395f681d9e2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xe7f1c956db08b5da6d74fdbc2fce46ea41c9fd2a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x85dc5228ec76124f1b8d7deb80f51590d9f4ca38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x74ca986bfb29ec1fd17cdaa9cf937add64ff3de8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xfd500931562eccc229ea04b978c16fed6dbecb47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x9ad235e8a86cc39b6e2494863680b5b3c89c76c8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x297a7fcbee0e9a135cea7a0825ccba2f995c1c44</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xc73fd8d23c041e4564e5fc98aaf346edbc1fc78e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xcace7a2dcf6f3d264018020ca5beded1ca8de5ed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Tx_tatal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1003,131 +947,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0xc17be8ca8606392b008eecff0aa110e98be86184</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x25fdced48a42678c1cbec6f4b183ffa6bfa1d055</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x59e86c580edd6b6aff3f8823000e1c9814a65962</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x31efff70b4e02e8d57bb2550867ff18aefc64496</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xa595d78b10e1d98c29179447fec537c8753f9545</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x94e7345ce55e44b6b94f082950a5bc80d4ccc1c8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xfa2868322ca8924320a1b07b92518d586f520c58</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xb54a428c93cfacd552d7f9909c37866ad71fd54b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x881b653e43791a0bccc3914e5c40336fcdd41fc4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x405c1f8c4abe3455946f65091f41f842cf9f11ec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x50851d19e0d78c761d5f60c8438ea4a5eaa79667</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x9dc41f5ce84f86a83e66bf7c22b5b066980a38d0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xff24d527419a059bb4940e7ee92f30d1e89b4aff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x37bdb9941b7a547be76fe2e29c166e883dcd0356</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xfb90f68de08337930ed46bddf7ace97495bb346a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x293b58b6181d77c1299f6154c3ebad19fa293407</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6dd3fe4b2a0829ae5e3abcd3b8f95700c3f4c677</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf74ddaa6319e1e36ca800f9daf99d234a04d87b2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0xf7c9e8f0877ad9f21c60e63dd30a0432a0268186</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0xad3ff6de5a09ec450aaf8c934e9c914ad17a2fd5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xf50edc34cd06fcdd50da7c1aef901017605e9232</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0284ef63d8951df26cbdb7b59835357510be3c67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x44d121dc715d21e924b5c587ebc47056c7922ec0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x7688cf997c6791fae85ce67f8b6d11da22a5de10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x97e12fb4405de2712671b49b8751cdeecc5a63cf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xa666f37a0a5e1687beefe1cdbce4bea1f05ad763</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x3c9540ef69938fe57f3fb21209e3be93634ef5b0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x95094bf10f049e8e52046d94ed757882ae8e2188</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xe96bf9d07e512889f67d194c4c125fce182ff06a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x9533fbd1a6f6e11f1e4e22e1b5cf7949d837adea</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x40e3c338be335703e307e12185592f8ead9e0857</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x5f126c0c7c9ae4201c68265a201ae63e8f8e5a60</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1464,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS1248"/>
+  <dimension ref="A1:AS1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1519,7 +1343,7 @@
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>44</v>
@@ -1549,7 +1373,7 @@
         <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>112</v>
@@ -1558,16 +1382,16 @@
         <v>111</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>112</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>112</v>
@@ -1576,7 +1400,7 @@
         <v>134</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>112</v>
@@ -1585,7 +1409,7 @@
         <v>135</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>112</v>
@@ -1594,7 +1418,7 @@
         <v>133</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>112</v>
@@ -1620,7 +1444,7 @@
     </row>
     <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1">
         <v>38</v>
@@ -1665,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V2" s="1">
         <v>30301</v>
@@ -1683,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AD2" s="1">
         <v>9</v>
@@ -1766,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V3" s="1">
         <v>3091</v>
@@ -1784,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="AD3" s="1">
         <v>3</v>
@@ -1867,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V4" s="1">
         <v>4059</v>
@@ -1885,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AD4" s="1">
         <v>3</v>
@@ -1968,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V5" s="1">
         <v>2</v>
@@ -1986,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AD5" s="1">
         <v>3</v>
@@ -2013,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AP5" s="1">
         <v>35</v>
@@ -2060,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V6" s="1">
         <v>76</v>
@@ -2078,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="AD6" s="1">
         <v>3</v>
@@ -2143,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V7" s="1">
         <v>13674</v>
@@ -2161,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AD7" s="1">
         <v>4</v>
@@ -2226,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V8" s="1">
         <v>640</v>
@@ -2244,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AD8" s="1">
         <v>3</v>
@@ -2309,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" s="1">
         <v>5341</v>
@@ -2327,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="AD9" s="1">
         <v>3</v>
@@ -2392,7 +2216,7 @@
         <v>4</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V10" s="1">
         <v>7907</v>
@@ -2410,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="AD10" s="1">
         <v>3</v>
@@ -2475,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V11" s="1">
         <v>214</v>
@@ -2493,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AD11" s="1">
         <v>16</v>
@@ -2558,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V12" s="1">
         <v>2387</v>
@@ -2576,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AD12" s="1">
         <v>3</v>
@@ -2641,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V13" s="1">
         <v>1349</v>
@@ -2659,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AD13" s="1">
         <v>3</v>
@@ -2724,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V14" s="1">
         <v>5002</v>
@@ -2742,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AD14" s="1">
         <v>3</v>
@@ -2807,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V15" s="1">
         <v>38</v>
@@ -2825,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AD15" s="1">
         <v>3</v>
@@ -2890,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V16" s="1">
         <v>2597</v>
@@ -2908,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AD16" s="1">
         <v>2</v>
@@ -2973,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V17" s="1">
         <v>276</v>
@@ -2991,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="AD17" s="1">
         <v>3</v>
@@ -3056,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V18" s="1">
         <v>178</v>
@@ -3074,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="AD18" s="1">
         <v>3</v>
@@ -3139,7 +2963,7 @@
         <v>6</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V19" s="1">
         <v>96</v>
@@ -3157,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AD19" s="1">
         <v>3</v>
@@ -3222,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V20" s="1">
         <v>244</v>
@@ -3240,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AD20" s="1">
         <v>3</v>
@@ -3305,7 +3129,7 @@
         <v>5</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V21" s="1">
         <v>60</v>
@@ -3323,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="AD21" s="1">
         <v>3</v>
@@ -3388,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V22" s="1">
         <v>267</v>
@@ -3406,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="AD22" s="1">
         <v>3</v>
@@ -3453,7 +3277,7 @@
         <v>4</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V23" s="1">
         <v>251</v>
@@ -3471,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="AD23" s="1">
         <v>4</v>
@@ -3527,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AD24" s="1">
         <v>3</v>
@@ -3583,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AD25" s="1">
         <v>3</v>
@@ -3630,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AD26" s="1">
         <v>3</v>
@@ -3677,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AD27" s="1">
         <v>3</v>
@@ -3724,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="AD28" s="1">
         <v>3</v>
@@ -3771,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AD29" s="1">
         <v>3</v>
@@ -3818,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="AD30" s="1">
         <v>3</v>
@@ -3865,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AD31" s="1">
         <v>3</v>
@@ -3912,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="AD32" s="1">
         <v>34</v>
@@ -3959,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="AD33" s="1">
         <v>3</v>
@@ -4006,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="AD34" s="1">
         <v>3</v>
@@ -4053,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="AD35" s="1">
         <v>3</v>
@@ -4091,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="AD36" s="1">
         <v>5</v>
@@ -4129,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="AD37" s="1">
         <v>3</v>
@@ -4167,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="AD38" s="1">
         <v>3</v>
@@ -4205,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="AD39" s="1">
         <v>1</v>
@@ -4243,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AD40" s="1">
         <v>3</v>
@@ -4281,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="AD41" s="1">
         <v>3</v>
@@ -4310,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="AD42" s="1">
         <v>2</v>
@@ -4339,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="AD43" s="1">
         <v>3</v>
@@ -4368,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AD44" s="1">
         <v>3</v>
@@ -4387,10 +4211,6 @@
       <c r="C45" s="1">
         <v>4</v>
       </c>
-      <c r="I45" s="1">
-        <f>SUM(H2:H41)</f>
-        <v>0</v>
-      </c>
       <c r="Y45" s="1" t="s">
         <v>179</v>
       </c>
@@ -4401,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="AD45" s="1">
         <v>3</v>
@@ -4412,17 +4232,8 @@
     </row>
     <row r="46" spans="1:43">
       <c r="A46"/>
-      <c r="Y46" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z46" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>1</v>
-      </c>
       <c r="AC46" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AD46" s="1">
         <v>3</v>
@@ -4433,17 +4244,8 @@
     </row>
     <row r="47" spans="1:43">
       <c r="A47"/>
-      <c r="Y47" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>1</v>
-      </c>
       <c r="AC47" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AD47" s="1">
         <v>3</v>
@@ -4454,17 +4256,8 @@
     </row>
     <row r="48" spans="1:43">
       <c r="A48"/>
-      <c r="Y48" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>1</v>
-      </c>
       <c r="AC48" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AD48" s="1">
         <v>3</v>
@@ -4475,17 +4268,8 @@
     </row>
     <row r="49" spans="1:31">
       <c r="A49"/>
-      <c r="Y49" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z49" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>1</v>
-      </c>
       <c r="AC49" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="AD49" s="1">
         <v>3</v>
@@ -4496,17 +4280,8 @@
     </row>
     <row r="50" spans="1:31">
       <c r="A50"/>
-      <c r="Y50" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>1</v>
-      </c>
       <c r="AC50" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="AD50" s="1">
         <v>3</v>
@@ -4517,17 +4292,8 @@
     </row>
     <row r="51" spans="1:31">
       <c r="A51"/>
-      <c r="Y51" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>1</v>
-      </c>
       <c r="AC51" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="AD51" s="1">
         <v>3</v>
@@ -4538,17 +4304,8 @@
     </row>
     <row r="52" spans="1:31">
       <c r="A52"/>
-      <c r="Y52" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA52" s="1">
-        <v>1</v>
-      </c>
       <c r="AC52" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="AD52" s="1">
         <v>3</v>
@@ -4559,17 +4316,8 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53"/>
-      <c r="Y53" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA53" s="1">
-        <v>1</v>
-      </c>
       <c r="AC53" s="1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="AD53" s="1">
         <v>3</v>
@@ -4580,17 +4328,8 @@
     </row>
     <row r="54" spans="1:31">
       <c r="A54"/>
-      <c r="Y54" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA54" s="1">
-        <v>1</v>
-      </c>
       <c r="AC54" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AD54" s="1">
         <v>3</v>
@@ -4601,17 +4340,8 @@
     </row>
     <row r="55" spans="1:31">
       <c r="A55"/>
-      <c r="Y55" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z55" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA55" s="1">
-        <v>1</v>
-      </c>
       <c r="AC55" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="AD55" s="1">
         <v>3</v>
@@ -4622,17 +4352,8 @@
     </row>
     <row r="56" spans="1:31">
       <c r="A56"/>
-      <c r="Y56" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA56" s="1">
-        <v>1</v>
-      </c>
       <c r="AC56" s="1" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="AD56" s="1">
         <v>3</v>
@@ -4643,17 +4364,8 @@
     </row>
     <row r="57" spans="1:31">
       <c r="A57"/>
-      <c r="Y57" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>1</v>
-      </c>
       <c r="AC57" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="AD57" s="1">
         <v>2</v>
@@ -4664,407 +4376,119 @@
     </row>
     <row r="58" spans="1:31">
       <c r="A58"/>
-      <c r="Y58" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD58" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE58" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="59" spans="1:31">
       <c r="A59"/>
-      <c r="Y59" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z59" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD59" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE59" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="60" spans="1:31">
       <c r="A60"/>
-      <c r="AC60" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD60" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE60" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="61" spans="1:31">
       <c r="A61"/>
-      <c r="AC61" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD61" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE61" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="62" spans="1:31">
       <c r="A62"/>
-      <c r="AC62" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD62" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE62" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="63" spans="1:31">
       <c r="A63"/>
-      <c r="AC63" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD63" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE63" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="64" spans="1:31">
       <c r="A64"/>
-      <c r="AC64" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65"/>
-      <c r="AC65" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66"/>
-      <c r="AC66" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67"/>
-      <c r="AC67" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31">
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68"/>
-      <c r="AC68" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD68" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31">
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69"/>
-      <c r="AC69" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD69" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31">
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70"/>
-      <c r="AC70" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD70" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31">
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71"/>
-      <c r="AC71" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD71" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31">
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72"/>
-      <c r="AC72" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31">
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73"/>
-      <c r="AC73" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD73" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74"/>
-      <c r="AC74" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD74" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31">
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75"/>
-      <c r="AC75" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD75" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31">
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76"/>
-      <c r="AC76" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD76" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31">
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77"/>
-      <c r="AC77" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD77" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31">
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78"/>
-      <c r="AC78" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD78" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31">
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79"/>
-      <c r="AC79" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD79" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31">
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80"/>
-      <c r="AC80" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD80" s="1">
-        <v>7</v>
-      </c>
-      <c r="AE80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31">
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81"/>
-      <c r="AC81" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD81" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31">
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82"/>
-      <c r="AC82" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD82" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31">
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83"/>
-      <c r="AC83" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD83" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31">
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84"/>
-      <c r="AC84" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD84" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31">
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85"/>
-      <c r="AC85" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD85" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31">
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86"/>
-      <c r="AC86" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD86" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31">
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87"/>
-      <c r="AC87" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD87" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31">
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:1">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:1">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:1">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:1">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:1">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:1">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:1">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:1">
       <c r="A96"/>
     </row>
     <row r="97" spans="1:1">
@@ -8432,96 +7856,6 @@
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218"/>
-    </row>
-    <row r="1219" spans="1:1">
-      <c r="A1219"/>
-    </row>
-    <row r="1220" spans="1:1">
-      <c r="A1220"/>
-    </row>
-    <row r="1221" spans="1:1">
-      <c r="A1221"/>
-    </row>
-    <row r="1222" spans="1:1">
-      <c r="A1222"/>
-    </row>
-    <row r="1223" spans="1:1">
-      <c r="A1223"/>
-    </row>
-    <row r="1224" spans="1:1">
-      <c r="A1224"/>
-    </row>
-    <row r="1225" spans="1:1">
-      <c r="A1225"/>
-    </row>
-    <row r="1226" spans="1:1">
-      <c r="A1226"/>
-    </row>
-    <row r="1227" spans="1:1">
-      <c r="A1227"/>
-    </row>
-    <row r="1228" spans="1:1">
-      <c r="A1228"/>
-    </row>
-    <row r="1229" spans="1:1">
-      <c r="A1229"/>
-    </row>
-    <row r="1230" spans="1:1">
-      <c r="A1230"/>
-    </row>
-    <row r="1231" spans="1:1">
-      <c r="A1231"/>
-    </row>
-    <row r="1232" spans="1:1">
-      <c r="A1232"/>
-    </row>
-    <row r="1233" spans="1:1">
-      <c r="A1233"/>
-    </row>
-    <row r="1234" spans="1:1">
-      <c r="A1234"/>
-    </row>
-    <row r="1235" spans="1:1">
-      <c r="A1235"/>
-    </row>
-    <row r="1236" spans="1:1">
-      <c r="A1236"/>
-    </row>
-    <row r="1237" spans="1:1">
-      <c r="A1237"/>
-    </row>
-    <row r="1238" spans="1:1">
-      <c r="A1238"/>
-    </row>
-    <row r="1239" spans="1:1">
-      <c r="A1239"/>
-    </row>
-    <row r="1240" spans="1:1">
-      <c r="A1240"/>
-    </row>
-    <row r="1241" spans="1:1">
-      <c r="A1241"/>
-    </row>
-    <row r="1242" spans="1:1">
-      <c r="A1242"/>
-    </row>
-    <row r="1243" spans="1:1">
-      <c r="A1243"/>
-    </row>
-    <row r="1244" spans="1:1">
-      <c r="A1244"/>
-    </row>
-    <row r="1245" spans="1:1">
-      <c r="A1245"/>
-    </row>
-    <row r="1246" spans="1:1">
-      <c r="A1246"/>
-    </row>
-    <row r="1247" spans="1:1">
-      <c r="A1247"/>
-    </row>
-    <row r="1248" spans="1:1">
-      <c r="A1248"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
